--- a/trabajos.inacap.2019/Preparacion y evaluacion de proyecto (PEP)/Guia ABpro Nª3/assets/Flujo de caja Modificado.xlsx
+++ b/trabajos.inacap.2019/Preparacion y evaluacion de proyecto (PEP)/Guia ABpro Nª3/assets/Flujo de caja Modificado.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8257F80-9F94-48E1-A56B-740DC8EF35F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE791E0-69A2-4A5F-A36C-B70316677857}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="199">
   <si>
     <t>Año</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Precio unitario</t>
   </si>
   <si>
-    <t>Cantidad requerida</t>
-  </si>
-  <si>
     <t>Costo total</t>
   </si>
   <si>
@@ -116,12 +113,6 @@
     <t>Exelink Rack 19" 12U 600x450</t>
   </si>
   <si>
-    <t>https://www.pcfactory.cl/producto/26955-dell-memoria-ram-certificada-8-gb--1rx8-udimm-2400mhz</t>
-  </si>
-  <si>
-    <t>Dell Memoria RAM 8GB UDIMM 2400MHZ</t>
-  </si>
-  <si>
     <t>https://www.pcfactory.cl/producto/20234-logitech-combo-teclado--mouse-mk120-usb</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
   </si>
   <si>
     <t>Silla para PC 63x104</t>
-  </si>
-  <si>
-    <t>https://www.sodimac.cl/sodimac-cl/product/3737446/LED-55-NU7100-4K-Ultra-HD-Smart-TV/3737446</t>
   </si>
   <si>
     <t>LED 55" NU7100 4k Ultra HD Smart TV Samsung</t>
@@ -480,13 +468,6 @@
     <t xml:space="preserve">Tablas Complementarias </t>
   </si>
   <si>
-    <t>Se debe actualizar 
-estos valores</t>
-  </si>
-  <si>
-    <t>Prestamo Frances - Tabla de Amortizacion</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Acelerada</t>
   </si>
   <si>
@@ -546,9 +527,6 @@
     <t>Ingreso y Egreso</t>
   </si>
   <si>
-    <t>Flujo de Caja</t>
-  </si>
-  <si>
     <t>Tabla de despreciacion de Activos Fisicos</t>
   </si>
   <si>
@@ -564,21 +542,9 @@
     <t>Valor de despreciacion</t>
   </si>
   <si>
-    <t>Valor mensual del activo</t>
-  </si>
-  <si>
     <t>N°</t>
   </si>
   <si>
-    <t>Valor Desecho</t>
-  </si>
-  <si>
-    <t>Costo de implementacion</t>
-  </si>
-  <si>
-    <t>Costo de Desarrollo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inversion de Activos </t>
   </si>
   <si>
@@ -592,88 +558,6 @@
   </si>
   <si>
     <t>Costos de Implementacion</t>
-  </si>
-  <si>
-    <t>Costo del Riesgo</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Costo del Alcance </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Km^2)*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alcance Propuesto </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Km^2)*</t>
-    </r>
-  </si>
-  <si>
-    <t>Desarrollo del Software</t>
-  </si>
-  <si>
-    <t>Inversion en Tecnologia</t>
-  </si>
-  <si>
-    <t>Inversion en Inmueble</t>
-  </si>
-  <si>
-    <t>Servicios Varios</t>
-  </si>
-  <si>
-    <t>Ingreso Afecto a Impuesto</t>
-  </si>
-  <si>
-    <t>Egreso Afecto a Impuesto</t>
-  </si>
-  <si>
-    <t>Gasto No Desembolsables</t>
-  </si>
-  <si>
-    <t>Utilidad Antes de Impuesto</t>
-  </si>
-  <si>
-    <t>Impuesto</t>
-  </si>
-  <si>
-    <t>Utilidad Despues de Impuesto</t>
-  </si>
-  <si>
-    <t>Ajustes  por Gastos No Desembolsables</t>
-  </si>
-  <si>
-    <t>Egresos No Afecto a Impuestos</t>
-  </si>
-  <si>
-    <t>Beneficios No Afectos a Impuestos</t>
-  </si>
-  <si>
-    <t>Total de Valor Despreciado</t>
-  </si>
-  <si>
-    <t>Valor Despreciado</t>
   </si>
   <si>
     <r>
@@ -708,33 +592,173 @@
     </r>
   </si>
   <si>
+    <t>Valor Libro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor de Aquisicion </t>
+  </si>
+  <si>
+    <t>Vida util (Según SII)</t>
+  </si>
+  <si>
+    <t>Despreciacion Anual</t>
+  </si>
+  <si>
+    <t>Despreciacion Mensual</t>
+  </si>
+  <si>
+    <t>Total Global Libro:</t>
+  </si>
+  <si>
+    <t>Valor Contable</t>
+  </si>
+  <si>
+    <t>Valor Total Contable</t>
+  </si>
+  <si>
+    <t>Valor Desecho (Solo Inmuebles)</t>
+  </si>
+  <si>
+    <t>Metodo Comercial</t>
+  </si>
+  <si>
+    <t>Valor Total Comercial</t>
+  </si>
+  <si>
+    <t>Valor Libro Total</t>
+  </si>
+  <si>
+    <t>Utilidad antes del Impuesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impuesto </t>
+  </si>
+  <si>
+    <t>Utilidad Neta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceptos </t>
+  </si>
+  <si>
+    <t>Totales Financieros</t>
+  </si>
+  <si>
+    <t>Valor Comercial Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metodo Economico </t>
+  </si>
+  <si>
+    <t>https://www.sodimac.cl/sodimac-cl/product/3708608/LED-55-UK6350-4K-Ultra-HDSmart-TV/3708608</t>
+  </si>
+  <si>
+    <t>LED 55" UK6350 4K Ultra HDSmart TV LG</t>
+  </si>
+  <si>
+    <t>Valor Total Economico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla de Amortizacion/Prestamo Frances </t>
+  </si>
+  <si>
+    <t>Venta (Juicio Experto)</t>
+  </si>
+  <si>
+    <t>ACTUALIZADO EL 30 DE JUNIO 2019
+estos valores</t>
+  </si>
+  <si>
+    <t>Ingreso de Caja</t>
+  </si>
+  <si>
+    <t>Egreso de Caja</t>
+  </si>
+  <si>
+    <t>Flujo del Año</t>
+  </si>
+  <si>
+    <t>Flujo Acumulado</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Contabilidad </t>
+      <t xml:space="preserve">Alcance </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(www.masqueuno.cl Plan Contabilidad Empresa)</t>
+      <t>(km^2)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Coste </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(km^2)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio de alcance </t>
+  </si>
+  <si>
+    <t>Aporte Capital</t>
+  </si>
+  <si>
+    <t>Comprar de Activos</t>
+  </si>
+  <si>
+    <t>Activos Tecnologicos</t>
+  </si>
+  <si>
+    <t>Activos Inmuebles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costos Fijos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arriendo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agua </t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad </t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000000%"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1101,12 +1125,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1132,6 +1150,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB482DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,7 +1227,7 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1282,34 +1306,9 @@
     <xf numFmtId="166" fontId="19" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="19" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1348,47 +1347,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="11" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="42" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="11" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="2" fillId="21" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="11" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="2" fillId="21" borderId="3" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="29" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="29" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="29" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="29" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="14" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="30" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="30" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="30" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="30" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="31" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="30" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="13" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="17" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1411,20 +1395,109 @@
     <xf numFmtId="42" fontId="0" fillId="24" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="24" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="19" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="8" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="2" fillId="19" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="19" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="8" fillId="19" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="8" fillId="21" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="8" fillId="24" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="17" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="20% - Énfasis1" xfId="9" builtinId="30"/>
@@ -1786,7 +1859,7 @@
   <dimension ref="B2:AY50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,37 +1911,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="B2" s="121" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="2:51" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
+      <c r="B3" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
       <c r="R3" s="10"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
@@ -1954,10 +2027,10 @@
       <c r="I5" s="42">
         <v>6</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
       <c r="R5" s="11"/>
       <c r="S5" s="12"/>
       <c r="T5" s="14"/>
@@ -1991,10 +2064,10 @@
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
       <c r="T6" s="14"/>
@@ -2019,7 +2092,7 @@
     </row>
     <row r="7" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C7" s="45">
         <f>Complementario!I8</f>
@@ -2043,10 +2116,10 @@
       <c r="I7" s="45">
         <v>0</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
       <c r="R7" s="29"/>
       <c r="S7" s="12"/>
       <c r="T7" s="14"/>
@@ -2071,12 +2144,12 @@
     </row>
     <row r="8" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C8" s="45">
         <v>0</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="161">
         <f>Complementario!$C$9/10</f>
         <v>1540.3</v>
       </c>
@@ -2085,7 +2158,7 @@
         <v>3080.6</v>
       </c>
       <c r="F8" s="46">
-        <f t="shared" ref="E8:I8" si="0">$D$8+E8</f>
+        <f t="shared" ref="F8:I8" si="0">$D$8+E8</f>
         <v>4620.8999999999996</v>
       </c>
       <c r="G8" s="46">
@@ -2100,10 +2173,10 @@
         <f t="shared" si="0"/>
         <v>9241.7999999999993</v>
       </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
       <c r="R8" s="29"/>
       <c r="S8" s="12"/>
       <c r="T8" s="14"/>
@@ -2128,7 +2201,7 @@
     </row>
     <row r="9" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C9" s="45">
         <v>0</v>
@@ -2157,10 +2230,10 @@
         <f>Complementario!$C$5*I8</f>
         <v>1386270000</v>
       </c>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
       <c r="R9" s="29"/>
       <c r="S9" s="12"/>
       <c r="T9" s="14"/>
@@ -2185,7 +2258,7 @@
     </row>
     <row r="10" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C10" s="45">
         <v>0</v>
@@ -2214,10 +2287,10 @@
         <f t="shared" si="1"/>
         <v>1386270000</v>
       </c>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
@@ -2242,7 +2315,7 @@
     </row>
     <row r="11" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C11" s="45">
         <v>0</v>
@@ -2271,10 +2344,10 @@
         <f>I10-(I10*Complementario!$C$13)</f>
         <v>1011977100</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
@@ -2299,10 +2372,10 @@
     </row>
     <row r="12" spans="2:51" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J12" s="9"/>
-      <c r="K12" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="L12" s="58"/>
+      <c r="K12" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="120"/>
       <c r="M12" s="9"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
@@ -2351,14 +2424,14 @@
       <c r="I13" s="41">
         <v>6</v>
       </c>
-      <c r="J13" s="73"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="49" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L13" s="50">
         <v>0.25</v>
       </c>
-      <c r="M13" s="73"/>
+      <c r="M13" s="64"/>
       <c r="R13" s="11"/>
       <c r="S13" s="25"/>
       <c r="T13" s="11"/>
@@ -2392,14 +2465,14 @@
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
-      <c r="J14" s="74"/>
+      <c r="J14" s="65"/>
       <c r="K14" s="49" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L14" s="51">
         <v>6</v>
       </c>
-      <c r="M14" s="74"/>
+      <c r="M14" s="65"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
@@ -2427,42 +2500,42 @@
       <c r="B15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="70">
         <v>0</v>
       </c>
       <c r="D15" s="48">
-        <f>'Costo de Implementacion'!$E$11*12</f>
-        <v>145495480.56</v>
+        <f>'Costo de Implementacion'!$E$10*12</f>
+        <v>142184376</v>
       </c>
       <c r="E15" s="48">
-        <f>'Costo de Implementacion'!$E$11*12</f>
-        <v>145495480.56</v>
+        <f>'Costo de Implementacion'!$E$10*12</f>
+        <v>142184376</v>
       </c>
       <c r="F15" s="48">
-        <f>'Costo de Implementacion'!$E$11*12</f>
-        <v>145495480.56</v>
+        <f>'Costo de Implementacion'!$E$10*12</f>
+        <v>142184376</v>
       </c>
       <c r="G15" s="48">
-        <f>'Costo de Implementacion'!$E$11*12</f>
-        <v>145495480.56</v>
+        <f>'Costo de Implementacion'!$E$10*12</f>
+        <v>142184376</v>
       </c>
       <c r="H15" s="48">
-        <f>'Costo de Implementacion'!$E$11*12</f>
-        <v>145495480.56</v>
+        <f>'Costo de Implementacion'!$E$10*12</f>
+        <v>142184376</v>
       </c>
       <c r="I15" s="48">
-        <f>'Costo de Implementacion'!$E$11*12</f>
-        <v>145495480.56</v>
-      </c>
-      <c r="J15" s="70"/>
+        <f>'Costo de Implementacion'!$E$10*12</f>
+        <v>142184376</v>
+      </c>
+      <c r="J15" s="61"/>
       <c r="K15" s="49" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L15" s="52">
         <f>NPV(L13,D27:I27)-Complementario!$I$8</f>
-        <v>145777362.42231214</v>
-      </c>
-      <c r="M15" s="70"/>
+        <v>155549835.88720548</v>
+      </c>
+      <c r="M15" s="61"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
@@ -2490,42 +2563,42 @@
       <c r="B16" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="70">
         <v>0</v>
       </c>
       <c r="D16" s="48">
-        <f>'Costo de Implementacion'!$E$16*12</f>
+        <f>'Costo de Implementacion'!$E$15*12</f>
         <v>2964000</v>
       </c>
       <c r="E16" s="48">
-        <f>'Costo de Implementacion'!$E$16*12</f>
+        <f>'Costo de Implementacion'!$E$15*12</f>
         <v>2964000</v>
       </c>
       <c r="F16" s="48">
-        <f>'Costo de Implementacion'!$E$16*12</f>
+        <f>'Costo de Implementacion'!$E$15*12</f>
         <v>2964000</v>
       </c>
       <c r="G16" s="48">
-        <f>'Costo de Implementacion'!$E$16*12</f>
+        <f>'Costo de Implementacion'!$E$15*12</f>
         <v>2964000</v>
       </c>
       <c r="H16" s="48">
-        <f>'Costo de Implementacion'!$E$16*12</f>
+        <f>'Costo de Implementacion'!$E$15*12</f>
         <v>2964000</v>
       </c>
       <c r="I16" s="48">
-        <f>'Costo de Implementacion'!$E$16*12</f>
+        <f>'Costo de Implementacion'!$E$15*12</f>
         <v>2964000</v>
       </c>
-      <c r="J16" s="70"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="49" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L16" s="53">
         <f>IRR(C29:I29)</f>
-        <v>0.31162769761818998</v>
-      </c>
-      <c r="M16" s="70"/>
+        <v>0.31580374281094503</v>
+      </c>
+      <c r="M16" s="61"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
@@ -2551,44 +2624,44 @@
     </row>
     <row r="17" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="79">
+        <v>57</v>
+      </c>
+      <c r="C17" s="70">
         <v>0</v>
       </c>
       <c r="D17" s="48">
-        <f>'Activo Fijos y Nominales'!$F$13/6</f>
-        <v>4419371.666666667</v>
+        <f>'Activo Fijos y Nominales'!$F$12/6</f>
+        <v>4128391.6666666665</v>
       </c>
       <c r="E17" s="48">
-        <f>'Activo Fijos y Nominales'!$F$13/6</f>
-        <v>4419371.666666667</v>
+        <f>'Activo Fijos y Nominales'!$F$12/6</f>
+        <v>4128391.6666666665</v>
       </c>
       <c r="F17" s="48">
-        <f>'Activo Fijos y Nominales'!$F$13/6</f>
-        <v>4419371.666666667</v>
+        <f>'Activo Fijos y Nominales'!$F$12/6</f>
+        <v>4128391.6666666665</v>
       </c>
       <c r="G17" s="48">
-        <f>'Activo Fijos y Nominales'!$F$13/6</f>
-        <v>4419371.666666667</v>
+        <f>'Activo Fijos y Nominales'!$F$12/6</f>
+        <v>4128391.6666666665</v>
       </c>
       <c r="H17" s="48">
-        <f>'Activo Fijos y Nominales'!$F$13/6</f>
-        <v>4419371.666666667</v>
+        <f>'Activo Fijos y Nominales'!$F$12/6</f>
+        <v>4128391.6666666665</v>
       </c>
       <c r="I17" s="48">
-        <f>'Activo Fijos y Nominales'!$F$13/6</f>
-        <v>4419371.666666667</v>
-      </c>
-      <c r="J17" s="70"/>
+        <f>'Activo Fijos y Nominales'!$F$12/6</f>
+        <v>4128391.6666666665</v>
+      </c>
+      <c r="J17" s="61"/>
       <c r="K17" s="49" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L17" s="51">
         <f>(D5+((U31-D28)/E27))</f>
-        <v>0.77509468442360974</v>
-      </c>
-      <c r="M17" s="70"/>
+        <v>0.7229362669377164</v>
+      </c>
+      <c r="M17" s="61"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
@@ -2614,44 +2687,44 @@
     </row>
     <row r="18" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="79">
+        <v>58</v>
+      </c>
+      <c r="C18" s="70">
         <v>0</v>
       </c>
       <c r="D18" s="48">
-        <f>'Activo Fijos y Nominales'!$F$26/7</f>
-        <v>1268451.4285714286</v>
+        <f>'Activo Fijos y Nominales'!$F$25/7</f>
+        <v>1259880</v>
       </c>
       <c r="E18" s="48">
-        <f>'Activo Fijos y Nominales'!$F$26/7</f>
-        <v>1268451.4285714286</v>
+        <f>'Activo Fijos y Nominales'!$F$25/7</f>
+        <v>1259880</v>
       </c>
       <c r="F18" s="48">
-        <f>'Activo Fijos y Nominales'!$F$26/7</f>
-        <v>1268451.4285714286</v>
+        <f>'Activo Fijos y Nominales'!$F$25/7</f>
+        <v>1259880</v>
       </c>
       <c r="G18" s="48">
-        <f>'Activo Fijos y Nominales'!$F$26/7</f>
-        <v>1268451.4285714286</v>
+        <f>'Activo Fijos y Nominales'!$F$25/7</f>
+        <v>1259880</v>
       </c>
       <c r="H18" s="48">
-        <f>'Activo Fijos y Nominales'!$F$26/7</f>
-        <v>1268451.4285714286</v>
+        <f>'Activo Fijos y Nominales'!$F$25/7</f>
+        <v>1259880</v>
       </c>
       <c r="I18" s="48">
-        <f>'Activo Fijos y Nominales'!$F$26/7</f>
-        <v>1268451.4285714286</v>
-      </c>
-      <c r="J18" s="70"/>
+        <f>'Activo Fijos y Nominales'!$F$25/7</f>
+        <v>1259880</v>
+      </c>
+      <c r="J18" s="61"/>
       <c r="K18" s="49" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L18" s="54">
         <f>ROUNDDOWN(L17,0)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="70"/>
+      <c r="M18" s="61"/>
       <c r="Y18" s="30"/>
       <c r="Z18" s="30"/>
       <c r="AA18" s="30"/>
@@ -2674,41 +2747,41 @@
       <c r="B19" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="70">
         <v>0</v>
       </c>
       <c r="D19" s="48">
-        <f>Amortizacion!D6</f>
+        <f>Amortizacion!D11</f>
         <v>8250000</v>
       </c>
       <c r="E19" s="48">
-        <f>Amortizacion!E6</f>
+        <f>Amortizacion!E11</f>
         <v>6648763.0844651489</v>
       </c>
       <c r="F19" s="48">
-        <f>Amortizacion!F6</f>
+        <f>Amortizacion!F11</f>
         <v>5023507.6151972758</v>
       </c>
       <c r="G19" s="48">
-        <f>Amortizacion!G6</f>
+        <f>Amortizacion!G11</f>
         <v>3373873.3138903845</v>
       </c>
       <c r="H19" s="48">
-        <f>Amortizacion!H6</f>
+        <f>Amortizacion!H11</f>
         <v>1699494.49806389</v>
       </c>
       <c r="I19" s="48">
         <v>0</v>
       </c>
-      <c r="J19" s="70"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="49" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L19" s="51">
         <f>ROUNDDOWN(((L17-ROUNDDOWN(L17,0))*12),0)</f>
-        <v>9</v>
-      </c>
-      <c r="M19" s="70"/>
+        <v>8</v>
+      </c>
+      <c r="M19" s="61"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
@@ -2738,41 +2811,41 @@
       <c r="B20" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="70">
         <v>0</v>
       </c>
       <c r="D20" s="48">
-        <f>Amortizacion!D7</f>
+        <f>Amortizacion!D12</f>
         <v>106749127.70232336</v>
       </c>
       <c r="E20" s="48">
-        <f>Amortizacion!E7</f>
+        <f>Amortizacion!E12</f>
         <v>108350364.61785822</v>
       </c>
       <c r="F20" s="48">
-        <f>Amortizacion!F7</f>
+        <f>Amortizacion!F12</f>
         <v>109975620.08712609</v>
       </c>
       <c r="G20" s="48">
-        <f>Amortizacion!G7</f>
+        <f>Amortizacion!G12</f>
         <v>111625254.38843298</v>
       </c>
       <c r="H20" s="48">
-        <f>Amortizacion!H7</f>
+        <f>Amortizacion!H12</f>
         <v>113299633.20425947</v>
       </c>
       <c r="I20" s="48">
         <v>0</v>
       </c>
-      <c r="J20" s="70"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="49" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L20" s="55">
         <f>(((L17-ROUNDDOWN(L17,0))*12)-ROUNDDOWN(((L17-ROUNDDOWN(L17,0))*12),0))*30</f>
-        <v>9.0340863924995318</v>
-      </c>
-      <c r="M20" s="70"/>
+        <v>20.25705609757793</v>
+      </c>
+      <c r="M20" s="61"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
       <c r="S20" s="27"/>
@@ -2800,7 +2873,7 @@
     </row>
     <row r="21" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C21" s="48">
         <f>'Costos de desarrollo'!$K$26</f>
@@ -2824,10 +2897,10 @@
       <c r="I21" s="48">
         <v>0</v>
       </c>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
@@ -2855,11 +2928,11 @@
     </row>
     <row r="22" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22" s="48">
-        <f>'Activo Fijos y Nominales'!F13</f>
-        <v>26516230</v>
+        <f>'Activo Fijos y Nominales'!F12</f>
+        <v>24770350</v>
       </c>
       <c r="D22" s="48">
         <v>0</v>
@@ -2879,10 +2952,10 @@
       <c r="I22" s="48">
         <v>0</v>
       </c>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
@@ -2910,11 +2983,11 @@
     </row>
     <row r="23" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C23" s="48">
-        <f>'Activo Fijos y Nominales'!F26</f>
-        <v>8879160</v>
+        <f>'Activo Fijos y Nominales'!F25</f>
+        <v>8819160</v>
       </c>
       <c r="D23" s="48">
         <v>0</v>
@@ -2934,10 +3007,10 @@
       <c r="I23" s="48">
         <v>0</v>
       </c>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
@@ -2953,11 +3026,11 @@
     </row>
     <row r="24" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="40" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C24" s="48">
-        <f>'Activo Fijos y Nominales'!F32</f>
-        <v>738408</v>
+        <f>'Activo Fijos y Nominales'!F31</f>
+        <v>738426</v>
       </c>
       <c r="D24" s="48">
         <v>0</v>
@@ -2977,10 +3050,10 @@
       <c r="I24" s="48">
         <v>0</v>
       </c>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
@@ -3016,7 +3089,7 @@
     </row>
     <row r="26" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="44" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -3025,10 +3098,10 @@
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
       <c r="I26" s="43"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
       <c r="Y26" s="30"/>
       <c r="Z26" s="30"/>
       <c r="AA26" s="30"/>
@@ -3037,40 +3110,40 @@
     </row>
     <row r="27" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C27" s="3">
         <f>C7-C21-C22-C23-C24</f>
-        <v>104654202</v>
+        <v>106460064</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:I27" si="2">D11-SUM(D15,D16,D20,D21,D22,D23,D24)</f>
-        <v>-86545758.26232338</v>
+        <v>-83234653.702323377</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="2"/>
-        <v>80515854.822141767</v>
+        <v>83826959.382141769</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="2"/>
-        <v>247553449.35287392</v>
+        <v>250864553.91287392</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="2"/>
-        <v>414566665.05156702</v>
+        <v>417877769.61156702</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="2"/>
-        <v>581555136.23574054</v>
+        <v>584866240.7957406</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="2"/>
-        <v>863517619.44000006</v>
-      </c>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
+        <v>866828724</v>
+      </c>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
       <c r="R27" s="26"/>
@@ -3081,35 +3154,35 @@
     </row>
     <row r="28" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C28" s="20">
         <f>C27</f>
-        <v>104654202</v>
+        <v>106460064</v>
       </c>
       <c r="D28" s="20">
         <f t="shared" ref="D28:I28" si="3">D27+C28</f>
-        <v>18108443.73767662</v>
+        <v>23225410.297676623</v>
       </c>
       <c r="E28" s="20">
         <f t="shared" si="3"/>
-        <v>98624298.559818387</v>
+        <v>107052369.67981839</v>
       </c>
       <c r="F28" s="20">
         <f t="shared" si="3"/>
-        <v>346177747.91269231</v>
+        <v>357916923.59269232</v>
       </c>
       <c r="G28" s="20">
         <f t="shared" si="3"/>
-        <v>760744412.96425939</v>
+        <v>775794693.2042594</v>
       </c>
       <c r="H28" s="20">
         <f t="shared" si="3"/>
-        <v>1342299549.1999998</v>
+        <v>1360660934</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" si="3"/>
-        <v>2205817168.6399999</v>
+        <v>2227489658</v>
       </c>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
@@ -3125,7 +3198,7 @@
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C29" s="20">
         <f>-Complementario!I8</f>
@@ -3133,27 +3206,27 @@
       </c>
       <c r="D29" s="20">
         <f t="shared" ref="D29:I29" si="4">D27</f>
-        <v>-86545758.26232338</v>
+        <v>-83234653.702323377</v>
       </c>
       <c r="E29" s="20">
         <f t="shared" si="4"/>
-        <v>80515854.822141767</v>
+        <v>83826959.382141769</v>
       </c>
       <c r="F29" s="20">
         <f t="shared" si="4"/>
-        <v>247553449.35287392</v>
+        <v>250864553.91287392</v>
       </c>
       <c r="G29" s="20">
         <f t="shared" si="4"/>
-        <v>414566665.05156702</v>
+        <v>417877769.61156702</v>
       </c>
       <c r="H29" s="20">
         <f t="shared" si="4"/>
-        <v>581555136.23574054</v>
+        <v>584866240.7957406</v>
       </c>
       <c r="I29" s="20">
         <f t="shared" si="4"/>
-        <v>863517619.44000006</v>
+        <v>866828724</v>
       </c>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
@@ -3198,9 +3271,9 @@
       <c r="V31" s="26"/>
     </row>
     <row r="32" spans="2:41" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="P32" s="26"/>
       <c r="Q32" s="26"/>
       <c r="R32" s="26"/>
@@ -3267,8 +3340,8 @@
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
@@ -3338,21 +3411,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1616B9D-062F-42E5-B554-E8414B206157}">
-  <dimension ref="B3:I31"/>
+  <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
         <v>0</v>
@@ -3381,7 +3477,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -3393,144 +3489,140 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="45">
-        <v>0</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+        <v>188</v>
+      </c>
+      <c r="C5" s="155"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="45">
-        <v>0</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="B6" s="153" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="155">
+        <v>0</v>
+      </c>
+      <c r="D6" s="156">
+        <f>Complementario!$C$9/6</f>
+        <v>2567.1666666666665</v>
+      </c>
+      <c r="E6" s="156">
+        <f>$D$6+D6</f>
+        <v>5134.333333333333</v>
+      </c>
+      <c r="F6" s="156">
+        <f t="shared" ref="F6:I6" si="0">$D$6+E6</f>
+        <v>7701.5</v>
+      </c>
+      <c r="G6" s="156">
+        <f t="shared" si="0"/>
+        <v>10268.666666666666</v>
+      </c>
+      <c r="H6" s="156">
+        <f t="shared" si="0"/>
+        <v>12835.833333333332</v>
+      </c>
+      <c r="I6" s="156">
+        <f t="shared" si="0"/>
+        <v>15402.999999999998</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
-        <v>166</v>
+      <c r="B7" s="153" t="s">
+        <v>187</v>
       </c>
       <c r="C7" s="45">
         <v>0</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="D7" s="47">
+        <f>Complementario!$C$5*D6</f>
+        <v>385075000</v>
+      </c>
+      <c r="E7" s="47">
+        <f>Complementario!$C$5*E6</f>
+        <v>770150000</v>
+      </c>
+      <c r="F7" s="47">
+        <f>Complementario!$C$5*F6</f>
+        <v>1155225000</v>
+      </c>
+      <c r="G7" s="47">
+        <f>Complementario!$C$5*G6</f>
+        <v>1540300000</v>
+      </c>
+      <c r="H7" s="47">
+        <f>Complementario!$C$5*H6</f>
+        <v>1925374999.9999998</v>
+      </c>
+      <c r="I7" s="47">
+        <f>Complementario!$C$5*I6</f>
+        <v>2310449999.9999995</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
-        <v>168</v>
-      </c>
+      <c r="B8" s="153"/>
       <c r="C8" s="45">
         <v>0</v>
       </c>
-      <c r="D8" s="80">
-        <f>Complementario!$C$9/10</f>
-        <v>1540.3</v>
-      </c>
-      <c r="E8" s="80">
-        <f>$D$8+D8</f>
-        <v>3080.6</v>
-      </c>
-      <c r="F8" s="80">
-        <f t="shared" ref="F8:I8" si="0">$D$8+E8</f>
-        <v>4620.8999999999996</v>
-      </c>
-      <c r="G8" s="80">
-        <f t="shared" si="0"/>
-        <v>6161.2</v>
-      </c>
-      <c r="H8" s="80">
-        <f t="shared" si="0"/>
-        <v>7701.5</v>
-      </c>
-      <c r="I8" s="80">
-        <f t="shared" si="0"/>
-        <v>9241.7999999999993</v>
-      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
-        <v>167</v>
+      <c r="B9" s="154" t="s">
+        <v>189</v>
       </c>
       <c r="C9" s="45">
         <v>0</v>
       </c>
-      <c r="D9" s="47">
-        <f>Complementario!$C$5*'Flujo 1'!D8</f>
-        <v>231045000</v>
-      </c>
-      <c r="E9" s="47">
-        <f>Complementario!$C$5*'Flujo 1'!E8</f>
-        <v>462090000</v>
-      </c>
-      <c r="F9" s="47">
-        <f>Complementario!$C$5*'Flujo 1'!F8</f>
-        <v>693135000</v>
-      </c>
-      <c r="G9" s="47">
-        <f>Complementario!$C$5*'Flujo 1'!G8</f>
-        <v>924180000</v>
-      </c>
-      <c r="H9" s="47">
-        <f>Complementario!$C$5*'Flujo 1'!H8</f>
-        <v>1155225000</v>
-      </c>
-      <c r="I9" s="47">
-        <f>Complementario!$C$5*'Flujo 1'!I8</f>
-        <v>1386270000</v>
-      </c>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="45">
+        <v>0</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="45">
-        <f>'Costos de desarrollo'!$K$26</f>
-        <v>409212000</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
+      <c r="B11" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="157">
+        <f>SUM(C12,C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C12" s="45">
-        <f>'Activo Fijos y Nominales'!$F$13</f>
-        <v>26516230</v>
+        <f>SUM(C13,C14)</f>
+        <v>0</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
@@ -3540,13 +3632,10 @@
       <c r="I12" s="47"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="45">
-        <f>'Activo Fijos y Nominales'!$F$26</f>
-        <v>8879160</v>
-      </c>
+      <c r="B13" s="153" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="45"/>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
@@ -3555,13 +3644,10 @@
       <c r="I13" s="47"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="45">
-        <f>'Activo Fijos y Nominales'!$F$32</f>
-        <v>738408</v>
-      </c>
+      <c r="B14" s="153" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="45"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
@@ -3570,20 +3656,23 @@
       <c r="I14" s="47"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="154" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="45">
+        <f>SUM(C17:C20)</f>
+        <v>0</v>
+      </c>
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
@@ -3592,7 +3681,9 @@
       <c r="I16" s="47"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
+      <c r="B17" s="153" t="s">
+        <v>194</v>
+      </c>
       <c r="C17" s="45"/>
       <c r="D17" s="47"/>
       <c r="E17" s="47"/>
@@ -3602,20 +3693,22 @@
       <c r="I17" s="47"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="B18" s="153" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="45"/>
       <c r="D19" s="47"/>
       <c r="E19" s="47"/>
       <c r="F19" s="47"/>
@@ -3624,30 +3717,30 @@
       <c r="I19" s="47"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="B20" s="153" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -3658,102 +3751,166 @@
       <c r="I22" s="37"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="B23" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="45"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="61"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="61"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="61"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3768,8 +3925,8 @@
   </sheetPr>
   <dimension ref="B3:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3789,58 +3946,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="B3" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
       <c r="L3" s="21"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="H5" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="99" t="s">
+      <c r="I5" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="99" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="99" t="s">
+      <c r="C6" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="H5" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="K5" s="99" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="D6" s="18">
         <v>43538</v>
@@ -3870,9 +4027,9 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="98"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D7" s="18">
         <v>43539</v>
@@ -3902,9 +4059,9 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="98"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" s="18">
         <v>43560</v>
@@ -3934,9 +4091,9 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="98"/>
+      <c r="B9" s="124"/>
       <c r="C9" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D9" s="18">
         <v>43588</v>
@@ -3961,14 +4118,14 @@
         <v>14000</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="1"/>
+        <f>I9*J9</f>
         <v>20076000</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="98"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D10" s="18">
         <v>43588</v>
@@ -3998,9 +4155,9 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="98"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D11" s="18">
         <v>43588</v>
@@ -4030,9 +4187,9 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="98"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D12" s="18">
         <v>43588</v>
@@ -4062,9 +4219,9 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="98"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D13" s="18">
         <v>43588</v>
@@ -4094,9 +4251,9 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="98"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D14" s="18">
         <v>43588</v>
@@ -4126,9 +4283,9 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="98"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D15" s="18">
         <v>43588</v>
@@ -4158,9 +4315,9 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="98"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D16" s="18">
         <v>43588</v>
@@ -4190,9 +4347,9 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="98"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D17" s="18">
         <v>43588</v>
@@ -4222,9 +4379,9 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="98"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D18" s="18">
         <v>43560</v>
@@ -4254,9 +4411,9 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="98"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D19" s="18">
         <v>43588</v>
@@ -4286,9 +4443,9 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="98"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D20" s="18">
         <v>43588</v>
@@ -4318,9 +4475,9 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="98"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D21" s="18">
         <v>43560</v>
@@ -4350,9 +4507,9 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="98"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D22" s="18">
         <v>43588</v>
@@ -4382,9 +4539,9 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="98"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D23" s="18">
         <v>43588</v>
@@ -4414,9 +4571,9 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="98"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D24" s="18">
         <v>43719</v>
@@ -4446,9 +4603,9 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="98"/>
+      <c r="B25" s="124"/>
       <c r="C25" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D25" s="18">
         <v>43719</v>
@@ -4487,7 +4644,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K26" s="20">
         <f>SUM(K6:K25)</f>
@@ -4510,8 +4667,8 @@
   </sheetPr>
   <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4530,213 +4687,200 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="B2" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="105" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="123" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="124">
-        <v>96573</v>
-      </c>
-      <c r="D5" s="123">
+      <c r="B5" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="108">
+        <v>96576</v>
+      </c>
+      <c r="D5" s="107">
         <v>3</v>
       </c>
-      <c r="E5" s="125">
-        <f>C5*D5</f>
-        <v>289719</v>
+      <c r="E5" s="109">
+        <f t="shared" ref="E5:E9" si="0">C5*D5</f>
+        <v>289728</v>
       </c>
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="123" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="124">
+      <c r="B6" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="108">
         <v>52990</v>
       </c>
-      <c r="D6" s="123">
+      <c r="D6" s="107">
         <v>3</v>
       </c>
-      <c r="E6" s="125">
-        <f>C6*D6</f>
+      <c r="E6" s="109">
+        <f t="shared" si="0"/>
         <v>158970</v>
       </c>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="123" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="124">
-        <v>137967.19</v>
-      </c>
-      <c r="D7" s="123">
+      <c r="B7" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="110">
+        <v>2200000</v>
+      </c>
+      <c r="D7" s="107">
+        <v>3</v>
+      </c>
+      <c r="E7" s="109">
+        <f t="shared" si="0"/>
+        <v>6600000</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="110">
+        <v>1700000</v>
+      </c>
+      <c r="D8" s="107">
         <v>2</v>
       </c>
-      <c r="E7" s="125">
-        <f>C7*D7</f>
-        <v>275934.38</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="126">
-        <v>2200000</v>
-      </c>
-      <c r="D8" s="123">
+      <c r="E8" s="109">
+        <f t="shared" si="0"/>
+        <v>3400000</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="110">
+        <v>1400000</v>
+      </c>
+      <c r="D9" s="107">
+        <v>1</v>
+      </c>
+      <c r="E9" s="109">
+        <f t="shared" si="0"/>
+        <v>1400000</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="109">
+        <f>SUM(E5:E9)</f>
+        <v>11848698</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="125">
-        <f>C8*D8</f>
-        <v>6600000</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="123" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="126">
-        <v>1700000</v>
-      </c>
-      <c r="D9" s="123">
-        <v>2</v>
-      </c>
-      <c r="E9" s="125">
-        <f>C9*D9</f>
-        <v>3400000</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="123" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="126">
-        <v>1400000</v>
-      </c>
-      <c r="D10" s="123">
-        <v>1</v>
-      </c>
-      <c r="E10" s="125">
-        <f>C10*D10</f>
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="125">
-        <f>SUM(E5:E10)</f>
-        <v>12124623.379999999</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="121" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="122" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="121" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="121" t="s">
-        <v>15</v>
+      <c r="C13" s="112">
+        <v>120000</v>
+      </c>
+      <c r="D13" s="113">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="112">
+        <f>(C13*D13)+C13</f>
+        <v>156000</v>
       </c>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="128">
-        <v>120000</v>
-      </c>
-      <c r="D14" s="129">
+        <v>4</v>
+      </c>
+      <c r="C14" s="112">
+        <v>70000</v>
+      </c>
+      <c r="D14" s="113">
         <v>0.3</v>
       </c>
-      <c r="E14" s="128">
+      <c r="E14" s="112">
         <f>(C14*D14)+C14</f>
-        <v>156000</v>
+        <v>91000</v>
       </c>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="128">
-        <v>70000</v>
-      </c>
-      <c r="D15" s="129">
-        <v>0.3</v>
-      </c>
-      <c r="E15" s="128">
-        <f>(C15*D15)+C15</f>
-        <v>91000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="127">
-        <f>SUM(E14:E15)</f>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="111">
+        <f>SUM(E13:E14)</f>
         <v>247000</v>
       </c>
     </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="34" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K34" s="67"/>
-      <c r="L34" s="68"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4751,10 +4895,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B2:F33"/>
+  <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4762,498 +4906,479 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="B2" s="125" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="131" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
+      <c r="B4" s="126" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="109" t="s">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="94" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="109" t="s">
+      <c r="D6" s="95">
+        <v>969990</v>
+      </c>
+      <c r="E6" s="93">
+        <v>12</v>
+      </c>
+      <c r="F6" s="96">
+        <f t="shared" ref="F6:F11" si="0">D6*E6</f>
+        <v>11639880</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="158" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="111">
-        <v>969990</v>
-      </c>
-      <c r="E6" s="109">
+      <c r="D7" s="95">
+        <v>86990</v>
+      </c>
+      <c r="E7" s="93">
+        <v>1</v>
+      </c>
+      <c r="F7" s="96">
+        <f t="shared" si="0"/>
+        <v>86990</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="95">
+        <v>13290</v>
+      </c>
+      <c r="E8" s="93">
+        <v>21</v>
+      </c>
+      <c r="F8" s="96">
+        <f t="shared" si="0"/>
+        <v>279090</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="95">
+        <v>4990</v>
+      </c>
+      <c r="E9" s="93">
+        <v>20</v>
+      </c>
+      <c r="F9" s="96">
+        <f t="shared" si="0"/>
+        <v>99800</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="95">
+        <v>94990</v>
+      </c>
+      <c r="E10" s="93">
+        <v>21</v>
+      </c>
+      <c r="F10" s="96">
+        <f t="shared" si="0"/>
+        <v>1994790</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="95">
+        <v>533490</v>
+      </c>
+      <c r="E11" s="93">
+        <v>20</v>
+      </c>
+      <c r="F11" s="96">
+        <f t="shared" si="0"/>
+        <v>10669800</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="96">
+        <f>SUM(F6:F11)</f>
+        <v>24770350</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="126" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="160" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="99">
+        <v>81990</v>
+      </c>
+      <c r="E16" s="98">
+        <v>20</v>
+      </c>
+      <c r="F16" s="99">
+        <f>D16*E16</f>
+        <v>1639800</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="99">
+        <v>79990</v>
+      </c>
+      <c r="E17" s="98">
+        <v>20</v>
+      </c>
+      <c r="F17" s="99">
+        <f t="shared" ref="F16:F24" si="1">D17*E17</f>
+        <v>1599800</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="99">
+        <v>279990</v>
+      </c>
+      <c r="E18" s="98">
+        <v>3</v>
+      </c>
+      <c r="F18" s="99">
+        <f t="shared" si="1"/>
+        <v>839970</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="99">
+        <v>29990</v>
+      </c>
+      <c r="E19" s="98">
+        <v>3</v>
+      </c>
+      <c r="F19" s="99">
+        <f t="shared" si="1"/>
+        <v>89970</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="99">
+        <v>79990</v>
+      </c>
+      <c r="E20" s="98">
+        <v>8</v>
+      </c>
+      <c r="F20" s="99">
+        <f t="shared" si="1"/>
+        <v>639920</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="99">
+        <v>69990</v>
+      </c>
+      <c r="E21" s="98">
+        <v>3</v>
+      </c>
+      <c r="F21" s="99">
+        <f t="shared" si="1"/>
+        <v>209970</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="99">
+        <v>799990</v>
+      </c>
+      <c r="E22" s="98">
+        <v>3</v>
+      </c>
+      <c r="F22" s="99">
+        <f t="shared" si="1"/>
+        <v>2399970</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="99">
+        <v>199990</v>
+      </c>
+      <c r="E23" s="98">
+        <v>4</v>
+      </c>
+      <c r="F23" s="99">
+        <f t="shared" si="1"/>
+        <v>799960</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="99">
+        <v>29990</v>
+      </c>
+      <c r="E24" s="98">
+        <v>20</v>
+      </c>
+      <c r="F24" s="99">
+        <f t="shared" si="1"/>
+        <v>599800</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="99">
+        <f>SUM(F16:F24)</f>
+        <v>8819160</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="126" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="112">
-        <f>D6*E6</f>
-        <v>11639880</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="111">
-        <v>86990</v>
-      </c>
-      <c r="E7" s="109">
-        <v>1</v>
-      </c>
-      <c r="F7" s="112">
-        <f>D7*E7</f>
-        <v>86990</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="110" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="111">
-        <v>145490</v>
-      </c>
-      <c r="E8" s="109">
-        <v>12</v>
-      </c>
-      <c r="F8" s="112">
-        <f>D8*E8</f>
-        <v>1745880</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="109" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="111">
-        <v>13290</v>
-      </c>
-      <c r="E9" s="109">
+      <c r="C28" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="112">
-        <f>D9*E9</f>
-        <v>279090</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="111">
-        <v>4990</v>
-      </c>
-      <c r="E10" s="109">
-        <v>20</v>
-      </c>
-      <c r="F10" s="112">
-        <f>D10*E10</f>
-        <v>99800</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="109" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="111">
-        <v>94990</v>
-      </c>
-      <c r="E11" s="109">
-        <v>21</v>
-      </c>
-      <c r="F11" s="112">
-        <f>D11*E11</f>
-        <v>1994790</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="109" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="111">
-        <v>533490</v>
-      </c>
-      <c r="E12" s="109">
-        <v>20</v>
-      </c>
-      <c r="F12" s="112">
-        <f>D12*E12</f>
-        <v>10669800</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="112">
-        <f>SUM(F6:F12)</f>
-        <v>26516230</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="131" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="114" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="114" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="114" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="115">
-        <v>81990</v>
-      </c>
-      <c r="E17" s="114">
-        <v>20</v>
-      </c>
-      <c r="F17" s="115">
-        <f>D17*E17</f>
-        <v>1639800</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="114" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="115">
-        <v>79990</v>
-      </c>
-      <c r="E18" s="114">
-        <v>20</v>
-      </c>
-      <c r="F18" s="115">
-        <f>D18*E18</f>
-        <v>1599800</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="115">
-        <v>299990</v>
-      </c>
-      <c r="E19" s="114">
-        <v>3</v>
-      </c>
-      <c r="F19" s="115">
-        <f>D19*E19</f>
-        <v>899970</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="115">
-        <v>29990</v>
-      </c>
-      <c r="E20" s="114">
-        <v>3</v>
-      </c>
-      <c r="F20" s="115">
-        <f>D20*E20</f>
-        <v>89970</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="114" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="114" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="115">
-        <v>79990</v>
-      </c>
-      <c r="E21" s="114">
-        <v>8</v>
-      </c>
-      <c r="F21" s="115">
-        <f>D21*E21</f>
-        <v>639920</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="114" t="s">
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="114" t="s">
+      <c r="C29" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="102">
+        <f>'Costo de Implementacion'!E5</f>
+        <v>289728</v>
+      </c>
+      <c r="E29" s="102">
+        <f>D29</f>
+        <v>289728</v>
+      </c>
+      <c r="F29" s="102">
+        <f>SUM(D29:E29)</f>
+        <v>579456</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="115">
-        <v>69990</v>
-      </c>
-      <c r="E22" s="114">
-        <v>3</v>
-      </c>
-      <c r="F22" s="115">
-        <f>D22*E22</f>
-        <v>209970</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="115">
-        <v>799990</v>
-      </c>
-      <c r="E23" s="114">
-        <v>3</v>
-      </c>
-      <c r="F23" s="115">
-        <f>D23*E23</f>
-        <v>2399970</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="114" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="114" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="115">
-        <v>199990</v>
-      </c>
-      <c r="E24" s="114">
-        <v>4</v>
-      </c>
-      <c r="F24" s="115">
-        <f>D24*E24</f>
-        <v>799960</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="115">
-        <v>29990</v>
-      </c>
-      <c r="E25" s="114">
-        <v>20</v>
-      </c>
-      <c r="F25" s="115">
-        <f>D25*E25</f>
-        <v>599800</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="115">
-        <f>SUM(F17:F25)</f>
-        <v>8879160</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="131" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="116" t="s">
+      <c r="C30" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="116" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="116" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="116" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="118">
-        <f>'Costo de Implementacion'!E5</f>
-        <v>289719</v>
-      </c>
-      <c r="E30" s="118">
-        <f>D30</f>
-        <v>289719</v>
-      </c>
-      <c r="F30" s="118">
-        <f>SUM(D30:E30)</f>
-        <v>579438</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="116" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="116" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="118">
+      <c r="D30" s="102">
         <f>'Costo de Implementacion'!E6</f>
         <v>158970</v>
       </c>
-      <c r="E31" s="118">
-        <v>0</v>
-      </c>
-      <c r="F31" s="118">
-        <f>SUM(D31:E31)</f>
+      <c r="E30" s="102">
+        <v>0</v>
+      </c>
+      <c r="F30" s="102">
+        <f>SUM(D30:E30)</f>
         <v>158970</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="102">
+        <f>SUM(F29:F30)</f>
+        <v>738426</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="118">
-        <f>SUM(F30:F31)</f>
-        <v>738408</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="16">
-        <f>SUM(F32,F26,F13)</f>
-        <v>36133798</v>
+      <c r="E32" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="16">
+        <f>SUM(F31,F25,F12)</f>
+        <v>34327936</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{E39D7CB0-A8DB-43DB-A65D-3E24B648BEE1}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{D7169FBB-4255-45D1-BC06-EAF4B51250EA}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{CEAF20DF-A83C-429B-95F9-30FCCF58F020}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{F2A3A062-902E-4EA5-BDBC-C828A0D1E779}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{817E44CC-AE37-4150-B74C-8EA37188D170}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{C789B435-2BC8-4C70-9EDF-186C40C4506A}"/>
-    <hyperlink ref="C17" r:id="rId7" xr:uid="{4334B47C-3817-47A3-8D7C-D3ACEFA0663A}"/>
-    <hyperlink ref="C18" r:id="rId8" xr:uid="{2534F567-AAF7-4DF1-8899-B777F96ECE12}"/>
-    <hyperlink ref="C19" r:id="rId9" xr:uid="{F1A96E00-1C96-41A9-8C87-8D00CC8944A1}"/>
-    <hyperlink ref="C20" r:id="rId10" xr:uid="{3AAC8E55-9F25-4712-B55A-2054CE7FB1C0}"/>
-    <hyperlink ref="C21" r:id="rId11" xr:uid="{EC62B81D-F910-47FC-B1AB-84CF947ECD5E}"/>
-    <hyperlink ref="C23" r:id="rId12" xr:uid="{B4349A11-3CA3-4B14-9A7A-04EBB82C5A45}"/>
-    <hyperlink ref="C24" r:id="rId13" xr:uid="{F918B5E9-FBAF-4D57-BFDF-B9AA8E6EC381}"/>
-    <hyperlink ref="C25" r:id="rId14" xr:uid="{76E2763C-5CFF-460F-BBFB-6599C454B861}"/>
-    <hyperlink ref="C22" r:id="rId15" xr:uid="{B430F430-420A-47ED-A06E-FCDCFF49D289}"/>
-    <hyperlink ref="C30" r:id="rId16" xr:uid="{84895555-B4FA-4789-9B37-708810C68E41}"/>
-    <hyperlink ref="C31" r:id="rId17" xr:uid="{EEFE8AAC-F419-4561-A248-EDBC5B5E2C15}"/>
-    <hyperlink ref="C12" r:id="rId18" xr:uid="{FF447BFC-F0D9-402D-A8E6-8AC15FF9937B}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{F2A3A062-902E-4EA5-BDBC-C828A0D1E779}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{817E44CC-AE37-4150-B74C-8EA37188D170}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{C789B435-2BC8-4C70-9EDF-186C40C4506A}"/>
+    <hyperlink ref="C16" r:id="rId6" xr:uid="{4334B47C-3817-47A3-8D7C-D3ACEFA0663A}"/>
+    <hyperlink ref="C17" r:id="rId7" xr:uid="{2534F567-AAF7-4DF1-8899-B777F96ECE12}"/>
+    <hyperlink ref="C18" r:id="rId8" xr:uid="{F1A96E00-1C96-41A9-8C87-8D00CC8944A1}"/>
+    <hyperlink ref="C19" r:id="rId9" xr:uid="{3AAC8E55-9F25-4712-B55A-2054CE7FB1C0}"/>
+    <hyperlink ref="C20" r:id="rId10" xr:uid="{EC62B81D-F910-47FC-B1AB-84CF947ECD5E}"/>
+    <hyperlink ref="C22" r:id="rId11" xr:uid="{B4349A11-3CA3-4B14-9A7A-04EBB82C5A45}"/>
+    <hyperlink ref="C23" r:id="rId12" xr:uid="{F918B5E9-FBAF-4D57-BFDF-B9AA8E6EC381}"/>
+    <hyperlink ref="C24" r:id="rId13" xr:uid="{76E2763C-5CFF-460F-BBFB-6599C454B861}"/>
+    <hyperlink ref="C21" r:id="rId14" xr:uid="{B430F430-420A-47ED-A06E-FCDCFF49D289}"/>
+    <hyperlink ref="C29" r:id="rId15" xr:uid="{84895555-B4FA-4789-9B37-708810C68E41}"/>
+    <hyperlink ref="C30" r:id="rId16" xr:uid="{EEFE8AAC-F419-4561-A248-EDBC5B5E2C15}"/>
+    <hyperlink ref="C11" r:id="rId17" xr:uid="{FF447BFC-F0D9-402D-A8E6-8AC15FF9937B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5266,8 +5391,8 @@
   </sheetPr>
   <dimension ref="B2:O22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5286,16 +5411,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="B2" s="123" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -5303,173 +5428,173 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="135" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="135"/>
+      <c r="B4" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="127"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="135" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="135"/>
+      <c r="E4" s="127" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="127"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="135" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="135"/>
+      <c r="H4" s="127" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="127"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="100" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="101">
+      <c r="B5" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="85">
         <v>150000</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="101">
-        <v>27551.56</v>
+      <c r="E5" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="85">
+        <v>27592.86</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="100">
+      <c r="H5" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="84">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="101">
+      <c r="B6" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="85">
         <f>C5/1000</f>
         <v>150</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="101">
-        <v>48305</v>
+      <c r="E6" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="85">
+        <v>49033</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="100" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="100" t="s">
-        <v>106</v>
+      <c r="H6" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="84" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="101">
-        <v>678</v>
+      <c r="E7" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="85">
+        <v>679.86</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="100" t="s">
-        <v>66</v>
+      <c r="H7" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="84" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="127"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="85">
+        <v>771</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="85">
+        <v>550000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="86">
+        <v>15403</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="85">
+        <v>99.138999999999996</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="88">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="86">
+        <v>16396</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="85">
+        <v>10.16</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="101">
-        <v>759.02</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="101">
-        <v>550000000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="100" t="s">
+      <c r="I10" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="102">
-        <v>15403</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="101">
-        <v>100.53</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="104">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="102">
-        <v>16396</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="100" t="s">
+    </row>
+    <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="101">
-        <v>10.4</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="100" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="100" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="102">
+      <c r="C11" s="86">
         <v>126049</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="61"/>
+      <c r="E11" s="128" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="128"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="136" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="103">
+      <c r="B13" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="87">
         <v>0.27</v>
       </c>
       <c r="D13" s="1"/>
@@ -5480,52 +5605,52 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="135" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
+      <c r="B15" s="127" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="105" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="105" t="s">
-        <v>139</v>
+      <c r="B16" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="100">
+      <c r="B17" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="84">
         <v>6</v>
       </c>
-      <c r="D17" s="100">
+      <c r="D17" s="84">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="84">
+        <v>7</v>
+      </c>
+      <c r="D18" s="84">
+        <v>2</v>
+      </c>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="2:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="100">
-        <v>7</v>
-      </c>
-      <c r="D18" s="100">
-        <v>2</v>
-      </c>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="2:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
@@ -5555,7 +5680,7 @@
   <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5565,406 +5690,461 @@
     <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="B2" s="123" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="117" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="117" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="117" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="133" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="134" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="134" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="134" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="134" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="87">
+      <c r="B5" s="74">
         <v>1</v>
       </c>
-      <c r="C5" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="89">
+      <c r="C5" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="76">
         <f>'Activo Fijos y Nominales'!D6</f>
         <v>969990</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="130">
         <f>Complementario!$C$17</f>
         <v>6</v>
       </c>
-      <c r="F5" s="89">
+      <c r="F5" s="76">
         <f>D5/$E$5</f>
         <v>161665</v>
       </c>
-      <c r="G5" s="89">
+      <c r="G5" s="76">
         <f>F5/12</f>
         <v>13472.083333333334</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="76">
+        <v>0</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="87">
+      <c r="B6" s="74">
         <v>2</v>
       </c>
-      <c r="C6" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="89">
+      <c r="C6" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="76">
         <f>'Activo Fijos y Nominales'!D7</f>
         <v>86990</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="89">
-        <f t="shared" ref="F6:F11" si="0">D6/$E$5</f>
+      <c r="E6" s="130"/>
+      <c r="F6" s="76">
+        <f t="shared" ref="F6:F10" si="0">D6/$E$5</f>
         <v>14498.333333333334</v>
       </c>
-      <c r="G6" s="89">
-        <f t="shared" ref="G6:G20" si="1">F6/12</f>
+      <c r="G6" s="76">
+        <f t="shared" ref="G6:G19" si="1">F6/12</f>
         <v>1208.1944444444446</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="76">
+        <v>0</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="87">
-        <v>3</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="89">
+      <c r="B7" s="74">
+        <v>4</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="76">
         <f>'Activo Fijos y Nominales'!D8</f>
-        <v>145490</v>
-      </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="89">
-        <f t="shared" si="0"/>
-        <v>24248.333333333332</v>
-      </c>
-      <c r="G7" s="89">
-        <f t="shared" si="1"/>
-        <v>2020.6944444444443</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="87">
-        <v>4</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="89">
-        <f>'Activo Fijos y Nominales'!D9</f>
         <v>13290</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="89">
+      <c r="E7" s="130"/>
+      <c r="F7" s="76">
         <f t="shared" si="0"/>
         <v>2215</v>
       </c>
-      <c r="G8" s="89">
+      <c r="G7" s="76">
         <f t="shared" si="1"/>
         <v>184.58333333333334</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="87">
+      <c r="H7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="74">
         <v>5</v>
       </c>
-      <c r="C9" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="89">
-        <f>'Activo Fijos y Nominales'!D10</f>
+      <c r="C8" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="76">
+        <f>'Activo Fijos y Nominales'!D9</f>
         <v>4990</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="89">
+      <c r="E8" s="130"/>
+      <c r="F8" s="76">
         <f t="shared" si="0"/>
         <v>831.66666666666663</v>
       </c>
-      <c r="G9" s="89">
+      <c r="G8" s="76">
         <f t="shared" si="1"/>
         <v>69.305555555555557</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="87">
+      <c r="H8" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="74">
         <v>6</v>
       </c>
-      <c r="C10" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="89">
-        <f>'Activo Fijos y Nominales'!D11</f>
+      <c r="C9" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="76">
+        <f>'Activo Fijos y Nominales'!D10</f>
         <v>94990</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="89">
+      <c r="E9" s="130"/>
+      <c r="F9" s="76">
         <f t="shared" si="0"/>
         <v>15831.666666666666</v>
       </c>
-      <c r="G10" s="89">
+      <c r="G9" s="76">
         <f t="shared" si="1"/>
         <v>1319.3055555555554</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="91">
+      <c r="H9" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="77">
         <v>7</v>
       </c>
-      <c r="C11" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="93">
-        <f>'Activo Fijos y Nominales'!D12</f>
+      <c r="C10" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="79">
+        <f>'Activo Fijos y Nominales'!D11</f>
         <v>533490</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="93">
+      <c r="E10" s="131"/>
+      <c r="F10" s="79">
         <f t="shared" si="0"/>
         <v>88915</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G10" s="79">
         <f t="shared" si="1"/>
         <v>7409.583333333333</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="87">
+      <c r="H10" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="74">
         <v>8</v>
       </c>
-      <c r="C12" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="89">
-        <f>'Activo Fijos y Nominales'!D17</f>
-        <v>81990</v>
-      </c>
-      <c r="E12" s="90">
+      <c r="C11" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="76">
+        <f>'Activo Fijos y Nominales'!F16</f>
+        <v>1639800</v>
+      </c>
+      <c r="E11" s="130">
         <f>Complementario!$C$18</f>
         <v>7</v>
       </c>
-      <c r="F12" s="89">
-        <f>D12/$E$12</f>
-        <v>11712.857142857143</v>
-      </c>
-      <c r="G12" s="89">
+      <c r="F11" s="76">
+        <f>D11/$E$11</f>
+        <v>234257.14285714287</v>
+      </c>
+      <c r="G11" s="76">
         <f t="shared" si="1"/>
-        <v>976.07142857142856</v>
+        <v>19521.428571428572</v>
+      </c>
+      <c r="H11" s="76">
+        <f>D11-F11</f>
+        <v>1405542.857142857</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="74">
+        <v>9</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="76">
+        <f>'Activo Fijos y Nominales'!F17</f>
+        <v>1599800</v>
+      </c>
+      <c r="E12" s="130"/>
+      <c r="F12" s="76">
+        <f t="shared" ref="F12:F18" si="2">D12/$E$11</f>
+        <v>228542.85714285713</v>
+      </c>
+      <c r="G12" s="76">
+        <f t="shared" si="1"/>
+        <v>19045.238095238095</v>
+      </c>
+      <c r="H12" s="76">
+        <f>D12-F12</f>
+        <v>1371257.142857143</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="87">
-        <v>9</v>
-      </c>
-      <c r="C13" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="89">
-        <f>'Activo Fijos y Nominales'!D18</f>
-        <v>79990</v>
-      </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="89">
-        <f t="shared" ref="F13:F19" si="2">D13/$E$12</f>
-        <v>11427.142857142857</v>
-      </c>
-      <c r="G13" s="89">
+      <c r="B13" s="74">
+        <v>10</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="76">
+        <f>'Activo Fijos y Nominales'!F18</f>
+        <v>839970</v>
+      </c>
+      <c r="E13" s="130"/>
+      <c r="F13" s="76">
+        <f>D13/$E$5</f>
+        <v>139995</v>
+      </c>
+      <c r="G13" s="76">
         <f t="shared" si="1"/>
-        <v>952.2619047619047</v>
+        <v>11666.25</v>
+      </c>
+      <c r="H13" s="76">
+        <f t="shared" ref="H12:H19" si="3">D13-F13</f>
+        <v>699975</v>
+      </c>
+      <c r="I13" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="87">
-        <v>10</v>
-      </c>
-      <c r="C14" s="88" t="s">
+      <c r="B14" s="74">
+        <v>11</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="76">
+        <f>'Activo Fijos y Nominales'!F19</f>
+        <v>89970</v>
+      </c>
+      <c r="E14" s="130"/>
+      <c r="F14" s="76">
+        <f t="shared" si="2"/>
+        <v>12852.857142857143</v>
+      </c>
+      <c r="G14" s="76">
+        <f t="shared" si="1"/>
+        <v>1071.0714285714287</v>
+      </c>
+      <c r="H14" s="76">
+        <f t="shared" si="3"/>
+        <v>77117.142857142855</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="74">
+        <v>12</v>
+      </c>
+      <c r="C15" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="89">
-        <f>'Activo Fijos y Nominales'!D19</f>
-        <v>299990</v>
-      </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="89">
+      <c r="D15" s="76">
+        <f>'Activo Fijos y Nominales'!F20</f>
+        <v>639920</v>
+      </c>
+      <c r="E15" s="130"/>
+      <c r="F15" s="76">
         <f t="shared" si="2"/>
-        <v>42855.714285714283</v>
-      </c>
-      <c r="G14" s="89">
+        <v>91417.142857142855</v>
+      </c>
+      <c r="G15" s="76">
         <f t="shared" si="1"/>
-        <v>3571.3095238095234</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="87">
-        <v>11</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="89">
-        <f>'Activo Fijos y Nominales'!D20</f>
-        <v>29990</v>
-      </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="89">
+        <v>7618.0952380952376</v>
+      </c>
+      <c r="H15" s="76">
+        <f t="shared" si="3"/>
+        <v>548502.85714285716</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="74">
+        <v>13</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="76">
+        <f>'Activo Fijos y Nominales'!F21</f>
+        <v>209970</v>
+      </c>
+      <c r="E16" s="130"/>
+      <c r="F16" s="76">
         <f t="shared" si="2"/>
-        <v>4284.2857142857147</v>
-      </c>
-      <c r="G15" s="89">
+        <v>29995.714285714286</v>
+      </c>
+      <c r="G16" s="76">
         <f t="shared" si="1"/>
-        <v>357.02380952380958</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="87">
-        <v>12</v>
-      </c>
-      <c r="C16" s="88" t="s">
+        <v>2499.6428571428573</v>
+      </c>
+      <c r="H16" s="76">
+        <f t="shared" si="3"/>
+        <v>179974.28571428571</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="74">
+        <v>14</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="76">
+        <f>'Activo Fijos y Nominales'!F22</f>
+        <v>2399970</v>
+      </c>
+      <c r="E17" s="130"/>
+      <c r="F17" s="76">
+        <f>D17/$E$5</f>
+        <v>399995</v>
+      </c>
+      <c r="G17" s="76">
+        <f t="shared" si="1"/>
+        <v>33332.916666666664</v>
+      </c>
+      <c r="H17" s="76">
+        <f>D17-F17</f>
+        <v>1999975</v>
+      </c>
+      <c r="I17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="74">
+        <v>15</v>
+      </c>
+      <c r="C18" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="89">
-        <f>'Activo Fijos y Nominales'!D21</f>
-        <v>79990</v>
-      </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="89">
+      <c r="D18" s="76">
+        <f>'Activo Fijos y Nominales'!F23</f>
+        <v>799960</v>
+      </c>
+      <c r="E18" s="130"/>
+      <c r="F18" s="76">
         <f t="shared" si="2"/>
-        <v>11427.142857142857</v>
-      </c>
-      <c r="G16" s="89">
+        <v>114280</v>
+      </c>
+      <c r="G18" s="76">
         <f t="shared" si="1"/>
-        <v>952.2619047619047</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="87">
-        <v>13</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="89">
-        <f>'Activo Fijos y Nominales'!D22</f>
-        <v>69990</v>
-      </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="89">
-        <f t="shared" si="2"/>
-        <v>9998.5714285714294</v>
-      </c>
-      <c r="G17" s="89">
+        <v>9523.3333333333339</v>
+      </c>
+      <c r="H18" s="76">
+        <f t="shared" si="3"/>
+        <v>685680</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="74">
+        <v>16</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="76">
+        <f>'Activo Fijos y Nominales'!F24</f>
+        <v>599800</v>
+      </c>
+      <c r="E19" s="130"/>
+      <c r="F19" s="76">
+        <f>D19/$E$11</f>
+        <v>85685.71428571429</v>
+      </c>
+      <c r="G19" s="76">
         <f t="shared" si="1"/>
-        <v>833.21428571428578</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="87">
-        <v>14</v>
-      </c>
-      <c r="C18" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="89">
-        <f>'Activo Fijos y Nominales'!D23</f>
-        <v>799990</v>
-      </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="89">
-        <f t="shared" si="2"/>
-        <v>114284.28571428571</v>
-      </c>
-      <c r="G18" s="89">
-        <f t="shared" si="1"/>
-        <v>9523.6904761904752</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="87">
-        <v>15</v>
-      </c>
-      <c r="C19" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="89">
-        <f>'Activo Fijos y Nominales'!D24</f>
-        <v>199990</v>
-      </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="89">
-        <f t="shared" si="2"/>
-        <v>28570</v>
-      </c>
-      <c r="G19" s="89">
-        <f t="shared" si="1"/>
-        <v>2380.8333333333335</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="87">
-        <v>16</v>
-      </c>
-      <c r="C20" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="89">
-        <f>'Activo Fijos y Nominales'!D25</f>
-        <v>29990</v>
-      </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="89">
-        <f>D20/$E$12</f>
-        <v>4284.2857142857147</v>
-      </c>
-      <c r="G20" s="89">
-        <f t="shared" si="1"/>
-        <v>357.02380952380958</v>
+        <v>7140.4761904761908</v>
+      </c>
+      <c r="H19" s="76">
+        <f t="shared" si="3"/>
+        <v>514114.28571428568</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+      <c r="G20" s="146" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="147">
+        <f>SUM(H11,H12,H14,H15,H16,H18,H19)</f>
+        <v>4782188.5714285709</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E5:E11"/>
-    <mergeCell ref="E12:E20"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="E11:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F13 F17" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5973,158 +6153,454 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="C3:H16"/>
+  <dimension ref="B3:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="C3" s="56" t="s">
+    <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="123" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="142" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="J5" s="141"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-    </row>
-    <row r="5" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="86"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="9"/>
-      <c r="D6" s="85" t="s">
+      <c r="E6" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="140"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="69"/>
+      <c r="C7" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="132">
+        <f>'Despreciacion Activo Fijos '!D11</f>
+        <v>1639800</v>
+      </c>
+      <c r="E7" s="135">
+        <v>7</v>
+      </c>
+      <c r="F7" s="132">
+        <f>D7/$E$7</f>
+        <v>234257.14285714287</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="69"/>
+      <c r="C8" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="132">
+        <f>'Despreciacion Activo Fijos '!D12</f>
+        <v>1599800</v>
+      </c>
+      <c r="E8" s="135"/>
+      <c r="F8" s="132">
+        <f t="shared" ref="F8:F15" si="0">D8/$E$7</f>
+        <v>228542.85714285713</v>
+      </c>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="69"/>
+      <c r="C9" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="132">
+        <f>'Despreciacion Activo Fijos '!D13</f>
+        <v>839970</v>
+      </c>
+      <c r="E9" s="135"/>
+      <c r="F9" s="132">
+        <f t="shared" si="0"/>
+        <v>119995.71428571429</v>
+      </c>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="69"/>
+      <c r="C10" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="132">
+        <f>'Despreciacion Activo Fijos '!D14</f>
+        <v>89970</v>
+      </c>
+      <c r="E10" s="135"/>
+      <c r="F10" s="132">
+        <f t="shared" si="0"/>
+        <v>12852.857142857143</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="69"/>
+      <c r="C11" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="132">
+        <f>'Despreciacion Activo Fijos '!D15</f>
+        <v>639920</v>
+      </c>
+      <c r="E11" s="135"/>
+      <c r="F11" s="132">
+        <f t="shared" si="0"/>
+        <v>91417.142857142855</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="69"/>
+      <c r="C12" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="132">
+        <f>'Despreciacion Activo Fijos '!D16</f>
+        <v>209970</v>
+      </c>
+      <c r="E12" s="135"/>
+      <c r="F12" s="132">
+        <f t="shared" si="0"/>
+        <v>29995.714285714286</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="69"/>
+      <c r="C13" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="132">
+        <f>'Despreciacion Activo Fijos '!D17</f>
+        <v>2399970</v>
+      </c>
+      <c r="E13" s="135"/>
+      <c r="F13" s="132">
+        <f t="shared" si="0"/>
+        <v>342852.85714285716</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="69"/>
+      <c r="C14" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="132">
+        <f>'Despreciacion Activo Fijos '!D18</f>
+        <v>799960</v>
+      </c>
+      <c r="E14" s="135"/>
+      <c r="F14" s="132">
+        <f t="shared" si="0"/>
+        <v>114280</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="69"/>
+      <c r="C15" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="132">
+        <f>'Despreciacion Activo Fijos '!D19</f>
+        <v>599800</v>
+      </c>
+      <c r="E15" s="135"/>
+      <c r="F15" s="132">
+        <f t="shared" si="0"/>
+        <v>85685.71428571429</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="137" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="138">
+        <f>SUM(F7:F15)</f>
+        <v>1259880.0000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="142" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="142"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="136" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="143">
+        <f>'Activo Fijos y Nominales'!$F$25</f>
+        <v>8819160</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="136" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="143">
+        <f>'Despreciacion Activo Fijos '!$H$20</f>
+        <v>4782188.5714285709</v>
+      </c>
+      <c r="F21" s="139"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="143">
+        <f>D20-D21</f>
+        <v>4036971.4285714291</v>
+      </c>
+      <c r="F22" s="139"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="144">
+        <f>Complementario!C13</f>
+        <v>0.27</v>
+      </c>
+      <c r="F23" s="139"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="143">
+        <f>D22*D23</f>
+        <v>1089982.2857142859</v>
+      </c>
+      <c r="F24" s="139"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="136" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="143">
+        <f>$F$16</f>
+        <v>1259880.0000000002</v>
+      </c>
+      <c r="F25" s="139"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="137" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="145">
+        <f>D24+D25</f>
+        <v>2349862.2857142864</v>
+      </c>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+    </row>
+    <row r="29" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="142" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="139"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="85" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="65"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="78"/>
-      <c r="D7" s="81" t="s">
+      <c r="D30" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="139"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="132">
+        <f>'Despreciacion Activo Fijos '!D11</f>
+        <v>1639800</v>
+      </c>
+      <c r="E31" s="132">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="132">
+        <f>'Despreciacion Activo Fijos '!D12</f>
+        <v>1599800</v>
+      </c>
+      <c r="E32" s="132">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="82">
-        <f>'Despreciacion Activo Fijos '!F12</f>
-        <v>11712.857142857143</v>
-      </c>
-      <c r="F7" s="65"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="78"/>
-      <c r="D8" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="82">
-        <f>'Despreciacion Activo Fijos '!F13</f>
-        <v>11427.142857142857</v>
-      </c>
-      <c r="F8" s="65"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="78"/>
-      <c r="D9" s="81" t="s">
+      <c r="D33" s="132">
+        <f>'Despreciacion Activo Fijos '!D13</f>
+        <v>839970</v>
+      </c>
+      <c r="E33" s="132">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="132">
+        <f>'Despreciacion Activo Fijos '!D14</f>
+        <v>89970</v>
+      </c>
+      <c r="E34" s="132">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="82">
-        <f>'Despreciacion Activo Fijos '!F14</f>
-        <v>42855.714285714283</v>
-      </c>
-      <c r="F9" s="65"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="78"/>
-      <c r="D10" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="82">
-        <f>'Despreciacion Activo Fijos '!F15</f>
-        <v>4284.2857142857147</v>
-      </c>
-      <c r="F10" s="65"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="78"/>
-      <c r="D11" s="81" t="s">
+      <c r="D35" s="132">
+        <f>'Despreciacion Activo Fijos '!D15</f>
+        <v>639920</v>
+      </c>
+      <c r="E35" s="132">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="132">
+        <f>'Despreciacion Activo Fijos '!D16</f>
+        <v>209970</v>
+      </c>
+      <c r="E36" s="132">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="132">
+        <f>'Despreciacion Activo Fijos '!D17</f>
+        <v>2399970</v>
+      </c>
+      <c r="E37" s="132">
+        <v>690000</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="82">
-        <f>'Despreciacion Activo Fijos '!F16</f>
-        <v>11427.142857142857</v>
-      </c>
-      <c r="F11" s="65"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="78"/>
-      <c r="D12" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="82">
-        <f>'Despreciacion Activo Fijos '!F17</f>
-        <v>9998.5714285714294</v>
-      </c>
-      <c r="F12" s="65"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="78"/>
-      <c r="D13" s="81" t="s">
+      <c r="D38" s="132">
+        <f>'Despreciacion Activo Fijos '!D18</f>
+        <v>799960</v>
+      </c>
+      <c r="E38" s="132">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="82">
-        <f>'Despreciacion Activo Fijos '!F18</f>
-        <v>114284.28571428571</v>
-      </c>
-      <c r="F13" s="65"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="78"/>
-      <c r="D14" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="82">
-        <f>'Despreciacion Activo Fijos '!F19</f>
-        <v>28570</v>
-      </c>
-      <c r="F14" s="65"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="78"/>
-      <c r="D15" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="82">
-        <f>'Despreciacion Activo Fijos '!F20</f>
-        <v>4284.2857142857147</v>
-      </c>
-      <c r="F15" s="65"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="9"/>
-      <c r="D16" s="84" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="83">
-        <f>SUM(E7:E15)</f>
-        <v>238844.28571428571</v>
+      <c r="D39" s="132">
+        <f>'Despreciacion Activo Fijos '!D19</f>
+        <v>599800</v>
+      </c>
+      <c r="E39" s="132">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="149"/>
+      <c r="D40" s="137" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="138">
+        <f>SUM(E31:E39)</f>
+        <v>4520000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C3:H3"/>
+  <mergeCells count="5">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="E7:E15"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6136,10 +6612,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B2:H9"/>
+  <dimension ref="B7:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6148,193 +6624,193 @@
     <col min="3" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-    </row>
-    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="96">
-        <v>0</v>
-      </c>
-      <c r="D4" s="96">
+    <row r="7" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B7" s="125" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+    </row>
+    <row r="8" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="81">
+        <v>0</v>
+      </c>
+      <c r="D9" s="81">
         <v>1</v>
       </c>
-      <c r="E4" s="96">
+      <c r="E9" s="81">
         <v>2</v>
       </c>
-      <c r="F4" s="96">
+      <c r="F9" s="81">
         <v>3</v>
       </c>
-      <c r="G4" s="96">
+      <c r="G9" s="81">
         <v>4</v>
       </c>
-      <c r="H4" s="96">
+      <c r="H9" s="81">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="106" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="107">
-        <v>0</v>
-      </c>
-      <c r="D5" s="107">
-        <f>PMT(Complementario!$I$9,Complementario!$I$5,-Amortizacion!$C$8)</f>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="91">
+        <v>0</v>
+      </c>
+      <c r="D10" s="91">
+        <f>PMT(Complementario!$I$9,Complementario!$I$5,-Amortizacion!$C$13)</f>
         <v>114999127.70232336</v>
       </c>
-      <c r="E5" s="107">
-        <f>PMT(Complementario!$I$9,Complementario!$I$5,-Amortizacion!$C$8)</f>
+      <c r="E10" s="91">
+        <f>PMT(Complementario!$I$9,Complementario!$I$5,-Amortizacion!$C$13)</f>
         <v>114999127.70232336</v>
       </c>
-      <c r="F5" s="107">
-        <f>PMT(Complementario!$I$9,Complementario!$I$5,-Amortizacion!$C$8)</f>
+      <c r="F10" s="91">
+        <f>PMT(Complementario!$I$9,Complementario!$I$5,-Amortizacion!$C$13)</f>
         <v>114999127.70232336</v>
       </c>
-      <c r="G5" s="107">
-        <f>PMT(Complementario!$I$9,Complementario!$I$5,-Amortizacion!$C$8)</f>
+      <c r="G10" s="91">
+        <f>PMT(Complementario!$I$9,Complementario!$I$5,-Amortizacion!$C$13)</f>
         <v>114999127.70232336</v>
       </c>
-      <c r="H5" s="107">
-        <f>PMT(Complementario!$I$9,Complementario!$I$5,-Amortizacion!$C$8)</f>
+      <c r="H10" s="91">
+        <f>PMT(Complementario!$I$9,Complementario!$I$5,-Amortizacion!$C$13)</f>
         <v>114999127.70232336</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="106" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="107">
-        <v>0</v>
-      </c>
-      <c r="D6" s="107">
-        <f>+Complementario!I9*Amortizacion!$C$8</f>
+      <c r="C11" s="91">
+        <v>0</v>
+      </c>
+      <c r="D11" s="91">
+        <f>+Complementario!I9*Amortizacion!$C$13</f>
         <v>8250000</v>
       </c>
-      <c r="E6" s="107">
-        <f>+Complementario!I9*$D$8</f>
+      <c r="E11" s="91">
+        <f>+Complementario!I9*$D$13</f>
         <v>6648763.0844651489</v>
       </c>
-      <c r="F6" s="107">
-        <f>+Complementario!I9*Amortizacion!$E$8</f>
+      <c r="F11" s="91">
+        <f>+Complementario!I9*Amortizacion!$E$13</f>
         <v>5023507.6151972758</v>
       </c>
-      <c r="G6" s="107">
-        <f>+Complementario!I9*$F$8</f>
+      <c r="G11" s="91">
+        <f>+Complementario!I9*$F$13</f>
         <v>3373873.3138903845</v>
       </c>
-      <c r="H6" s="107">
-        <f>+Complementario!I9*Amortizacion!$G$8</f>
+      <c r="H11" s="91">
+        <f>+Complementario!I9*Amortizacion!$G$13</f>
         <v>1699494.49806389</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="107">
-        <v>0</v>
-      </c>
-      <c r="D7" s="107">
-        <f>+D5-D6</f>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="91">
+        <v>0</v>
+      </c>
+      <c r="D12" s="91">
+        <f>+D10-D11</f>
         <v>106749127.70232336</v>
       </c>
-      <c r="E7" s="107">
-        <f>+E5-E6</f>
+      <c r="E12" s="91">
+        <f>+E10-E11</f>
         <v>108350364.61785822</v>
       </c>
-      <c r="F7" s="107">
-        <f>+F5-F6</f>
+      <c r="F12" s="91">
+        <f>+F10-F11</f>
         <v>109975620.08712609</v>
       </c>
-      <c r="G7" s="107">
-        <f>+G5-G6</f>
+      <c r="G12" s="91">
+        <f>+G10-G11</f>
         <v>111625254.38843298</v>
       </c>
-      <c r="H7" s="107">
-        <f>+H5-H6</f>
+      <c r="H12" s="91">
+        <f>+H10-H11</f>
         <v>113299633.20425947</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="106" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="108">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="92">
         <f>Complementario!I8</f>
         <v>550000000</v>
       </c>
-      <c r="D8" s="107">
-        <f>+C8-D7</f>
+      <c r="D13" s="91">
+        <f>+C13-D12</f>
         <v>443250872.29767662</v>
       </c>
-      <c r="E8" s="107">
-        <f>+D8-E7</f>
+      <c r="E13" s="91">
+        <f>+D13-E12</f>
         <v>334900507.67981839</v>
       </c>
-      <c r="F8" s="107">
-        <f>+E8-F7</f>
+      <c r="F13" s="91">
+        <f>+E13-F12</f>
         <v>224924887.59269232</v>
       </c>
-      <c r="G8" s="107">
-        <f>+F8-G7</f>
+      <c r="G13" s="91">
+        <f>+F13-G12</f>
         <v>113299633.20425934</v>
       </c>
-      <c r="H8" s="107">
-        <f>+G8-H7</f>
+      <c r="H13" s="91">
+        <f>+G13-H12</f>
         <v>-1.3411045074462891E-7</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="106" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="107">
-        <v>0</v>
-      </c>
-      <c r="D9" s="107">
-        <f>+D7+C9</f>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="91">
+        <v>0</v>
+      </c>
+      <c r="D14" s="91">
+        <f>+D12+C14</f>
         <v>106749127.70232336</v>
       </c>
-      <c r="E9" s="107">
-        <f>+E7+D9</f>
+      <c r="E14" s="91">
+        <f>+E12+D14</f>
         <v>215099492.32018158</v>
       </c>
-      <c r="F9" s="107">
-        <f>+F7+E9</f>
+      <c r="F14" s="91">
+        <f>+F12+E14</f>
         <v>325075112.40730768</v>
       </c>
-      <c r="G9" s="107">
-        <f>+G7+F9</f>
+      <c r="G14" s="91">
+        <f>+G12+F14</f>
         <v>436700366.79574066</v>
       </c>
-      <c r="H9" s="107">
-        <f>+H7+G9</f>
+      <c r="H14" s="91">
+        <f>+H12+G14</f>
         <v>550000000.00000012</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
